--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.46350467573143</v>
+        <v>1.995795333333333</v>
       </c>
       <c r="N2">
-        <v>1.46350467573143</v>
+        <v>5.987386</v>
       </c>
       <c r="O2">
-        <v>0.02506643165473944</v>
+        <v>0.03246541069287896</v>
       </c>
       <c r="P2">
-        <v>0.02506643165473944</v>
+        <v>0.0423018942495388</v>
       </c>
       <c r="Q2">
-        <v>201.80436838328</v>
+        <v>302.8141857773323</v>
       </c>
       <c r="R2">
-        <v>201.80436838328</v>
+        <v>2725.32767199599</v>
       </c>
       <c r="S2">
-        <v>0.00655717818724597</v>
+        <v>0.008768061570965182</v>
       </c>
       <c r="T2">
-        <v>0.00655717818724597</v>
+        <v>0.01177416752841554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.0797375517426</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N3">
-        <v>15.0797375517426</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O3">
-        <v>0.258280835709151</v>
+        <v>0.2689695888660982</v>
       </c>
       <c r="P3">
-        <v>0.258280835709151</v>
+        <v>0.3504629346041594</v>
       </c>
       <c r="Q3">
-        <v>2079.36261665453</v>
+        <v>2508.756406066851</v>
       </c>
       <c r="R3">
-        <v>2079.36261665453</v>
+        <v>22578.80765460166</v>
       </c>
       <c r="S3">
-        <v>0.06756420241312999</v>
+        <v>0.0726416781911348</v>
       </c>
       <c r="T3">
-        <v>0.06756420241312999</v>
+        <v>0.09754667912003728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>41.8418002025568</v>
+        <v>0.05109933333333333</v>
       </c>
       <c r="N4">
-        <v>41.8418002025568</v>
+        <v>0.153298</v>
       </c>
       <c r="O4">
-        <v>0.7166527326361096</v>
+        <v>0.0008312279396045215</v>
       </c>
       <c r="P4">
-        <v>0.7166527326361096</v>
+        <v>0.001083076284820421</v>
       </c>
       <c r="Q4">
-        <v>5769.614680374221</v>
+        <v>7.753101111452223</v>
       </c>
       <c r="R4">
-        <v>5769.614680374221</v>
+        <v>69.77791000307001</v>
       </c>
       <c r="S4">
-        <v>0.1874706272914282</v>
+        <v>0.0002244930095881275</v>
       </c>
       <c r="T4">
-        <v>0.1874706272914282</v>
+        <v>0.0003014598246665648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.46350467573143</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N5">
-        <v>1.46350467573143</v>
+        <v>0.0262</v>
       </c>
       <c r="O5">
-        <v>0.02506643165473944</v>
+        <v>0.0001420642931912906</v>
       </c>
       <c r="P5">
-        <v>0.02506643165473944</v>
+        <v>0.0001851074290747108</v>
       </c>
       <c r="Q5">
-        <v>110.6486569190159</v>
+        <v>1.325074359222222</v>
       </c>
       <c r="R5">
-        <v>110.6486569190159</v>
+        <v>11.925669233</v>
       </c>
       <c r="S5">
-        <v>0.003595278761356818</v>
+        <v>3.836786423312073E-05</v>
       </c>
       <c r="T5">
-        <v>0.003595278761356818</v>
+        <v>5.152218167402053E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.0797375517426</v>
+        <v>42.884111</v>
       </c>
       <c r="N6">
-        <v>15.0797375517426</v>
+        <v>85.76822200000001</v>
       </c>
       <c r="O6">
-        <v>0.258280835709151</v>
+        <v>0.6975917082082271</v>
       </c>
       <c r="P6">
-        <v>0.258280835709151</v>
+        <v>0.6059669874324066</v>
       </c>
       <c r="Q6">
-        <v>1140.107533963059</v>
+        <v>6506.63769894729</v>
       </c>
       <c r="R6">
-        <v>1140.107533963059</v>
+        <v>39039.82619368374</v>
       </c>
       <c r="S6">
-        <v>0.03704522509948186</v>
+        <v>0.1884013452602381</v>
       </c>
       <c r="T6">
-        <v>0.03704522509948186</v>
+        <v>0.1686628212115162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.8418002025568</v>
+        <v>1.995795333333333</v>
       </c>
       <c r="N7">
-        <v>41.8418002025568</v>
+        <v>5.987386</v>
       </c>
       <c r="O7">
-        <v>0.7166527326361096</v>
+        <v>0.03246541069287896</v>
       </c>
       <c r="P7">
-        <v>0.7166527326361096</v>
+        <v>0.0423018942495388</v>
       </c>
       <c r="Q7">
-        <v>3163.460337544099</v>
+        <v>164.1519129137353</v>
       </c>
       <c r="R7">
-        <v>3163.460337544099</v>
+        <v>1477.367216223618</v>
       </c>
       <c r="S7">
-        <v>0.1027895148541323</v>
+        <v>0.00475306028257771</v>
       </c>
       <c r="T7">
-        <v>0.1027895148541323</v>
+        <v>0.006382634016285499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.46350467573143</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N8">
-        <v>1.46350467573143</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O8">
-        <v>0.02506643165473944</v>
+        <v>0.2689695888660982</v>
       </c>
       <c r="P8">
-        <v>0.02506643165473944</v>
+        <v>0.3504629346041594</v>
       </c>
       <c r="Q8">
-        <v>166.7176539636514</v>
+        <v>1359.966548572735</v>
       </c>
       <c r="R8">
-        <v>166.7176539636514</v>
+        <v>12239.69893715461</v>
       </c>
       <c r="S8">
-        <v>0.005417114469608532</v>
+        <v>0.03937817642766247</v>
       </c>
       <c r="T8">
-        <v>0.005417114469608532</v>
+        <v>0.05287887664454025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>15.0797375517426</v>
+        <v>0.05109933333333333</v>
       </c>
       <c r="N9">
-        <v>15.0797375517426</v>
+        <v>0.153298</v>
       </c>
       <c r="O9">
-        <v>0.258280835709151</v>
+        <v>0.0008312279396045215</v>
       </c>
       <c r="P9">
-        <v>0.258280835709151</v>
+        <v>0.001083076284820421</v>
       </c>
       <c r="Q9">
-        <v>1717.834256838043</v>
+        <v>4.202862475519333</v>
       </c>
       <c r="R9">
-        <v>1717.834256838043</v>
+        <v>37.825762279674</v>
       </c>
       <c r="S9">
-        <v>0.05581715306008</v>
+        <v>0.0001216949492146652</v>
       </c>
       <c r="T9">
-        <v>0.05581715306008</v>
+        <v>0.000163417730112696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>41.8418002025568</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N10">
-        <v>41.8418002025568</v>
+        <v>0.0262</v>
       </c>
       <c r="O10">
-        <v>0.7166527326361096</v>
+        <v>0.0001420642931912906</v>
       </c>
       <c r="P10">
-        <v>0.7166527326361096</v>
+        <v>0.0001851074290747108</v>
       </c>
       <c r="Q10">
-        <v>4766.4806837052</v>
+        <v>0.7183068067333334</v>
       </c>
       <c r="R10">
-        <v>4766.4806837052</v>
+        <v>6.4647612606</v>
       </c>
       <c r="S10">
-        <v>0.1548760486183337</v>
+        <v>2.079875581823787E-05</v>
       </c>
       <c r="T10">
-        <v>0.1548760486183337</v>
+        <v>2.792955243351274E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.46350467573143</v>
+        <v>42.884111</v>
       </c>
       <c r="N11">
-        <v>1.46350467573143</v>
+        <v>85.76822200000001</v>
       </c>
       <c r="O11">
-        <v>0.02506643165473944</v>
+        <v>0.6975917082082271</v>
       </c>
       <c r="P11">
-        <v>0.02506643165473944</v>
+        <v>0.6059669874324066</v>
       </c>
       <c r="Q11">
-        <v>220.8458175885749</v>
+        <v>3527.169713588681</v>
       </c>
       <c r="R11">
-        <v>220.8458175885749</v>
+        <v>21163.01828153209</v>
       </c>
       <c r="S11">
-        <v>0.007175887169528122</v>
+        <v>0.1021300938745659</v>
       </c>
       <c r="T11">
-        <v>0.007175887169528122</v>
+        <v>0.09143007837702903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.0797375517426</v>
+        <v>1.995795333333333</v>
       </c>
       <c r="N12">
-        <v>15.0797375517426</v>
+        <v>5.987386</v>
       </c>
       <c r="O12">
-        <v>0.258280835709151</v>
+        <v>0.03246541069287896</v>
       </c>
       <c r="P12">
-        <v>0.258280835709151</v>
+        <v>0.0423018942495388</v>
       </c>
       <c r="Q12">
-        <v>2275.562916784884</v>
+        <v>246.369599778302</v>
       </c>
       <c r="R12">
-        <v>2275.562916784884</v>
+        <v>2217.326398004718</v>
       </c>
       <c r="S12">
-        <v>0.0739392890311879</v>
+        <v>0.007133694263777476</v>
       </c>
       <c r="T12">
-        <v>0.0739392890311879</v>
+        <v>0.009579461854641948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.8418002025568</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N13">
-        <v>41.8418002025568</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O13">
-        <v>0.7166527326361096</v>
+        <v>0.2689695888660982</v>
       </c>
       <c r="P13">
-        <v>0.7166527326361096</v>
+        <v>0.3504629346041594</v>
       </c>
       <c r="Q13">
-        <v>6314.012335145562</v>
+        <v>2041.124031614668</v>
       </c>
       <c r="R13">
-        <v>6314.012335145562</v>
+        <v>18370.11628453201</v>
       </c>
       <c r="S13">
-        <v>0.205159602290595</v>
+        <v>0.05910126415389944</v>
       </c>
       <c r="T13">
-        <v>0.205159602290595</v>
+        <v>0.07936397111916622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.46350467573143</v>
+        <v>0.05109933333333333</v>
       </c>
       <c r="N14">
-        <v>1.46350467573143</v>
+        <v>0.153298</v>
       </c>
       <c r="O14">
-        <v>0.02506643165473944</v>
+        <v>0.0008312279396045215</v>
       </c>
       <c r="P14">
-        <v>0.02506643165473944</v>
+        <v>0.001083076284820421</v>
       </c>
       <c r="Q14">
-        <v>71.43049806570244</v>
+        <v>6.307922506885999</v>
       </c>
       <c r="R14">
-        <v>71.43049806570244</v>
+        <v>56.771302561974</v>
       </c>
       <c r="S14">
-        <v>0.002320973067000001</v>
+        <v>0.0001826474964614874</v>
       </c>
       <c r="T14">
-        <v>0.002320973067000001</v>
+        <v>0.0002452676916759503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>15.0797375517426</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N15">
-        <v>15.0797375517426</v>
+        <v>0.0262</v>
       </c>
       <c r="O15">
-        <v>0.258280835709151</v>
+        <v>0.0001420642931912906</v>
       </c>
       <c r="P15">
-        <v>0.258280835709151</v>
+        <v>0.0001851074290747108</v>
       </c>
       <c r="Q15">
-        <v>736.009376589597</v>
+        <v>1.0780804034</v>
       </c>
       <c r="R15">
-        <v>736.009376589597</v>
+        <v>9.702723630600001</v>
       </c>
       <c r="S15">
-        <v>0.02391496610527123</v>
+        <v>3.12160915816969E-05</v>
       </c>
       <c r="T15">
-        <v>0.02391496610527123</v>
+        <v>4.191844330591331E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.8418002025568</v>
+        <v>42.884111</v>
       </c>
       <c r="N16">
-        <v>41.8418002025568</v>
+        <v>85.76822200000001</v>
       </c>
       <c r="O16">
-        <v>0.7166527326361096</v>
+        <v>0.6975917082082271</v>
       </c>
       <c r="P16">
-        <v>0.7166527326361096</v>
+        <v>0.6059669874324066</v>
       </c>
       <c r="Q16">
-        <v>2042.207775619513</v>
+        <v>5293.799964083631</v>
       </c>
       <c r="R16">
-        <v>2042.207775619513</v>
+        <v>31762.79978450179</v>
       </c>
       <c r="S16">
-        <v>0.06635693958162042</v>
+        <v>0.1532833209590445</v>
       </c>
       <c r="T16">
-        <v>0.06635693958162042</v>
+        <v>0.1372240592120605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.995795333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.987386</v>
+      </c>
+      <c r="O17">
+        <v>0.03246541069287896</v>
+      </c>
+      <c r="P17">
+        <v>0.0423018942495388</v>
+      </c>
+      <c r="Q17">
+        <v>308.0369925641089</v>
+      </c>
+      <c r="R17">
+        <v>2772.33293307698</v>
+      </c>
+      <c r="S17">
+        <v>0.008919289266464844</v>
+      </c>
+      <c r="T17">
+        <v>0.01197724322620095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H18">
+        <v>463.02893</v>
+      </c>
+      <c r="I18">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J18">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.53477466666667</v>
+      </c>
+      <c r="N18">
+        <v>49.60432400000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2689695888660982</v>
+      </c>
+      <c r="P18">
+        <v>0.3504629346041594</v>
+      </c>
+      <c r="Q18">
+        <v>2552.026340565924</v>
+      </c>
+      <c r="R18">
+        <v>22968.23706509332</v>
+      </c>
+      <c r="S18">
+        <v>0.07389457012182685</v>
+      </c>
+      <c r="T18">
+        <v>0.09922912162657915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H19">
+        <v>463.02893</v>
+      </c>
+      <c r="I19">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J19">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05109933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.153298</v>
+      </c>
+      <c r="O19">
+        <v>0.0008312279396045215</v>
+      </c>
+      <c r="P19">
+        <v>0.001083076284820421</v>
+      </c>
+      <c r="Q19">
+        <v>7.886823212348888</v>
+      </c>
+      <c r="R19">
+        <v>70.98140891113999</v>
+      </c>
+      <c r="S19">
+        <v>0.0002283649669439263</v>
+      </c>
+      <c r="T19">
+        <v>0.0003066592720245785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H20">
+        <v>463.02893</v>
+      </c>
+      <c r="I20">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J20">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.0262</v>
+      </c>
+      <c r="O20">
+        <v>0.0001420642931912906</v>
+      </c>
+      <c r="P20">
+        <v>0.0001851074290747108</v>
+      </c>
+      <c r="Q20">
+        <v>1.347928662888889</v>
+      </c>
+      <c r="R20">
+        <v>12.131357966</v>
+      </c>
+      <c r="S20">
+        <v>3.902961639376164E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.241081375519549E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H21">
+        <v>463.02893</v>
+      </c>
+      <c r="I21">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J21">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>42.884111</v>
+      </c>
+      <c r="N21">
+        <v>85.76822200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.6975917082082271</v>
+      </c>
+      <c r="P21">
+        <v>0.6059669874324066</v>
+      </c>
+      <c r="Q21">
+        <v>6618.861343443744</v>
+      </c>
+      <c r="R21">
+        <v>39713.16806066246</v>
+      </c>
+      <c r="S21">
+        <v>0.1916508093569649</v>
+      </c>
+      <c r="T21">
+        <v>0.1715718438685595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.0323125</v>
+      </c>
+      <c r="H22">
+        <v>100.064625</v>
+      </c>
+      <c r="I22">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J22">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.995795333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.987386</v>
+      </c>
+      <c r="O22">
+        <v>0.03246541069287896</v>
+      </c>
+      <c r="P22">
+        <v>0.0423018942495388</v>
+      </c>
+      <c r="Q22">
+        <v>99.85425580337501</v>
+      </c>
+      <c r="R22">
+        <v>599.12553482025</v>
+      </c>
+      <c r="S22">
+        <v>0.002891305309093742</v>
+      </c>
+      <c r="T22">
+        <v>0.002588387623994872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.0323125</v>
+      </c>
+      <c r="H23">
+        <v>100.064625</v>
+      </c>
+      <c r="I23">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J23">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.53477466666667</v>
+      </c>
+      <c r="N23">
+        <v>49.60432400000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2689695888660982</v>
+      </c>
+      <c r="P23">
+        <v>0.3504629346041594</v>
+      </c>
+      <c r="Q23">
+        <v>827.2730132397501</v>
+      </c>
+      <c r="R23">
+        <v>4963.6380794385</v>
+      </c>
+      <c r="S23">
+        <v>0.02395389997157459</v>
+      </c>
+      <c r="T23">
+        <v>0.02144428609383658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.0323125</v>
+      </c>
+      <c r="H24">
+        <v>100.064625</v>
+      </c>
+      <c r="I24">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J24">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05109933333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.153298</v>
+      </c>
+      <c r="O24">
+        <v>0.0008312279396045215</v>
+      </c>
+      <c r="P24">
+        <v>0.001083076284820421</v>
+      </c>
+      <c r="Q24">
+        <v>2.556617813875</v>
+      </c>
+      <c r="R24">
+        <v>15.33970688325</v>
+      </c>
+      <c r="S24">
+        <v>7.402751739631492E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.627176634063112E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.0323125</v>
+      </c>
+      <c r="H25">
+        <v>100.064625</v>
+      </c>
+      <c r="I25">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J25">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.0262</v>
+      </c>
+      <c r="O25">
+        <v>0.0001420642931912906</v>
+      </c>
+      <c r="P25">
+        <v>0.0001851074290747108</v>
+      </c>
+      <c r="Q25">
+        <v>0.4369488625000001</v>
+      </c>
+      <c r="R25">
+        <v>2.621693175</v>
+      </c>
+      <c r="S25">
+        <v>1.265196516447345E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.13264379060688E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.0323125</v>
+      </c>
+      <c r="H26">
+        <v>100.064625</v>
+      </c>
+      <c r="I26">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J26">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>42.884111</v>
+      </c>
+      <c r="N26">
+        <v>85.76822200000001</v>
+      </c>
+      <c r="O26">
+        <v>0.6975917082082271</v>
+      </c>
+      <c r="P26">
+        <v>0.6059669874324066</v>
+      </c>
+      <c r="Q26">
+        <v>2145.591242836688</v>
+      </c>
+      <c r="R26">
+        <v>8582.364971346751</v>
+      </c>
+      <c r="S26">
+        <v>0.06212613875741368</v>
+      </c>
+      <c r="T26">
+        <v>0.03707818476324138</v>
       </c>
     </row>
   </sheetData>
